--- a/data/trans_orig/Barthel-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>94.56013181395934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96.03574189543139</v>
+        <v>96.03574189543137</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>95.86857851477755</v>
@@ -681,7 +681,7 @@
         <v>93.82666931598705</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>91.47653389830033</v>
+        <v>91.47653389830032</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>96.07842326621966</v>
@@ -693,7 +693,7 @@
         <v>94.15005281512992</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>93.5762031763979</v>
+        <v>93.57620317639788</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>93.67444818385471</v>
+        <v>93.97115662859584</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>93.24110288302543</v>
+        <v>93.5725056057089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91.81871271838943</v>
+        <v>91.87272442880797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94.19937031268886</v>
+        <v>94.31126278682959</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>92.4295860913488</v>
+        <v>92.3895593573282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>89.42775498322685</v>
+        <v>89.70525611949854</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>91.11240042618044</v>
+        <v>91.20475725607918</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>89.70259299051506</v>
+        <v>89.82082890254976</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>93.85393131391061</v>
+        <v>93.97880391785844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92.4748819347635</v>
+        <v>92.35185859636238</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92.52388438857727</v>
+        <v>92.38957870260985</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>92.30969169140738</v>
+        <v>92.4966180406466</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>97.93752349315264</v>
+        <v>97.95899550971326</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>98.35318578932207</v>
+        <v>98.46164914752093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96.64424087612446</v>
+        <v>96.62030099651547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97.14780989099802</v>
+        <v>97.22438411873395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>97.57148805039037</v>
+        <v>97.53816613598129</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>94.70572012296518</v>
+        <v>94.69105973244588</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>95.49195294058234</v>
+        <v>95.64903245225062</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>93.01254087330049</v>
+        <v>93.04805451992181</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>97.38591506991371</v>
+        <v>97.35240018355003</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95.92133792247536</v>
+        <v>95.92523261824545</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95.56478902403157</v>
+        <v>95.54866714838252</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>94.55545776375696</v>
+        <v>94.54856513180319</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>93.77087771103749</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>91.68240178489334</v>
+        <v>91.68240178489336</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>95.92625797732704</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>95.01299809854937</v>
+        <v>95.07269687857119</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>90.35047805997741</v>
+        <v>89.77210217063134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93.30345334900467</v>
+        <v>93.27999328045819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93.93840577217924</v>
+        <v>94.10213383478396</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>92.30184648059047</v>
+        <v>92.44796029739059</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>85.2797302968464</v>
+        <v>85.72985471911859</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>90.44032884053473</v>
+        <v>90.32843349278585</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>90.04186781675692</v>
+        <v>90.03979331089332</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>94.25906886667592</v>
+        <v>94.17709071047146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88.52465143821797</v>
+        <v>88.63129546762306</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92.71718643421814</v>
+        <v>92.81912969884844</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>92.23986354042269</v>
+        <v>92.20191452608769</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>98.34568400644874</v>
+        <v>98.44065510160981</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>95.61020324458346</v>
+        <v>95.37473452802787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97.17768817067814</v>
+        <v>97.32251676484343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97.06834894582629</v>
+        <v>96.95031738239406</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>96.55844863569553</v>
+        <v>96.70676207761082</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>91.60407604254884</v>
+        <v>91.81431979899538</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>95.77171044078634</v>
+        <v>95.56312310870587</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>93.19691720406253</v>
+        <v>93.11448593672576</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>97.05586495301196</v>
+        <v>97.09894783802788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>92.8165110629696</v>
+        <v>92.64341103040081</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96.05670283726464</v>
+        <v>96.00673724961776</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>94.52220618365395</v>
+        <v>94.49604978608404</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>96.71685007319992</v>
+        <v>96.82424165418392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>89.06601597046382</v>
+        <v>88.55558493539613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94.49807276482758</v>
+        <v>94.38093992838725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95.28909288053485</v>
+        <v>95.18483530531006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>93.27949133764508</v>
+        <v>93.09711575019296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>84.89047258289449</v>
+        <v>85.40076788882988</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>86.99480173501068</v>
+        <v>87.36531544094878</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>90.65783988116334</v>
+        <v>90.64341152626812</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>95.44315841067848</v>
+        <v>95.47247493148376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88.34800370005168</v>
+        <v>88.88576208623141</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91.1248606096382</v>
+        <v>90.84468228236003</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>93.49984212611686</v>
+        <v>93.56545044204671</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>99.38072284140455</v>
+        <v>99.43257326251992</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>97.32208829312394</v>
+        <v>97.24106766985641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98.10441028028049</v>
+        <v>98.10235251440137</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97.89885645151917</v>
+        <v>97.96146918912405</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>97.55529369132519</v>
+        <v>97.49882678200565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>92.83121857716718</v>
+        <v>93.06697317195348</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>94.28461494245447</v>
+        <v>94.37522041997288</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>94.77989239643465</v>
+        <v>94.6599500286154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>98.09790090580111</v>
+        <v>98.1302064543389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94.15936554430708</v>
+        <v>94.01112117682297</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95.5291840892516</v>
+        <v>95.4104756886462</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>95.88387525004376</v>
+        <v>95.99784375303396</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>95.71186297066834</v>
+        <v>95.34631010992817</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>93.1627140918217</v>
+        <v>93.06336619884569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95.56908089555483</v>
+        <v>95.616530858345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95.56234906772791</v>
+        <v>95.81689279266487</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>93.55241279425594</v>
+        <v>93.60748514624272</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>90.72854068514503</v>
+        <v>90.79308558329502</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>92.2379669503451</v>
+        <v>92.3471074751251</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>91.27808996350778</v>
+        <v>91.26914819203189</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>94.9814772944417</v>
+        <v>95.17143508291122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92.55024040401381</v>
+        <v>92.48185914480419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94.33891405609197</v>
+        <v>94.38176491883311</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>93.54784831952809</v>
+        <v>93.49434980623566</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>98.82852395716264</v>
+        <v>98.76336425404813</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>97.40984642700184</v>
+        <v>97.39725547409334</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98.46952325228089</v>
+        <v>98.3943345554396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>97.79099684597438</v>
+        <v>97.78922048758503</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>97.22840756389985</v>
+        <v>97.19983807589271</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>95.26369172571495</v>
+        <v>95.10702679090082</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>96.11705465871032</v>
+        <v>96.09219312415868</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>94.19047142283215</v>
+        <v>94.20808076296198</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>97.53775806979606</v>
+        <v>97.57967401345661</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>95.71475261348471</v>
+        <v>95.63710354524179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96.81014784993181</v>
+        <v>96.7856964527322</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>95.44327029065954</v>
+        <v>95.51701884375774</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>93.60570935862128</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>92.31161350005652</v>
+        <v>92.31161350005651</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>96.34922782695061</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>96.33603205042245</v>
+        <v>96.5399259819289</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>93.69115955976153</v>
+        <v>93.51298968718861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95.1918866252482</v>
+        <v>95.14886277850211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95.70457143300573</v>
+        <v>95.66048220717519</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>94.36228993603909</v>
+        <v>94.297078925332</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>89.88298264875733</v>
+        <v>89.94443640404474</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>92.41524824084884</v>
+        <v>92.25334174527895</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>91.44993008703725</v>
+        <v>91.46639156013198</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>95.52550752232368</v>
+        <v>95.62757927467513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91.86195515480591</v>
+        <v>92.00151923597687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93.92108012834129</v>
+        <v>93.9678781866069</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>93.4897361691832</v>
+        <v>93.53997452034606</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>98.12309932710885</v>
+        <v>98.0694256275913</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>96.16746029932288</v>
+        <v>96.29050731959678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97.04802328965694</v>
+        <v>96.98048914962318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97.00769523327088</v>
+        <v>96.98614991920893</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>96.46748363463651</v>
+        <v>96.4052674998523</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>92.79499305702106</v>
+        <v>92.7549017851954</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>94.68076029410061</v>
+        <v>94.65838071903794</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>93.03615513478947</v>
+        <v>93.11211591547263</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>96.97706321241664</v>
+        <v>96.99269619363292</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>93.94204957392759</v>
+        <v>93.87160706769859</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95.48153066003569</v>
+        <v>95.49914052789228</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>94.63057763417919</v>
+        <v>94.62098383664879</v>
       </c>
     </row>
     <row r="19">
